--- a/matlab/preform/IRprofile_P_AND_G_105.xlsx
+++ b/matlab/preform/IRprofile_P_AND_G_105.xlsx
@@ -196,7 +196,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -880,40 +880,40 @@
                   <c:v>100.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100.4</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.9</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.4</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.4</c:v>
+                  <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>97.4</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>96.4</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>95.4</c:v>
+                  <c:v>95.3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.4</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93.4</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.4</c:v>
+                  <c:v>92.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91.4</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>90.4</c:v>
+                  <c:v>91.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v/>
@@ -1538,48 +1538,48 @@
                   <c:v>100.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100.4</c:v>
+                  <c:v>100.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.9</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.4</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.4</c:v>
+                  <c:v>97.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>97.4</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>96.4</c:v>
+                  <c:v>96.1</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>95.4</c:v>
+                  <c:v>95.3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.4</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93.4</c:v>
+                  <c:v>93.7</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>92.4</c:v>
+                  <c:v>92.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91.4</c:v>
+                  <c:v>92.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24079478"/>
-        <c:axId val="53123557"/>
+        <c:axId val="74269104"/>
+        <c:axId val="66810919"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24079478"/>
+        <c:axId val="74269104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,12 +1610,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53123557"/>
+        <c:crossAx val="66810919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53123557"/>
+        <c:axId val="66810919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1657,7 +1657,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24079478"/>
+        <c:crossAx val="74269104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1716,9 +1716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1727,7 +1727,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3709440" y="966240"/>
-        <a:ext cx="9040680" cy="7059600"/>
+        <a:ext cx="9040320" cy="7059240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2357,12 +2357,12 @@
         <v>66</v>
       </c>
       <c r="B47" s="0" t="n">
-        <f aca="false">B46-0.5</f>
-        <v>100.4</v>
+        <f aca="false">B46-0.8</f>
+        <v>100.1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <f aca="false">C46-0.5</f>
-        <v>100.4</v>
+        <f aca="false">C46-0.8</f>
+        <v>100.1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,12 +2370,12 @@
         <v>67.5</v>
       </c>
       <c r="B48" s="0" t="n">
-        <f aca="false">B47-0.5</f>
-        <v>99.9</v>
+        <f aca="false">B47-0.8</f>
+        <v>99.3</v>
       </c>
       <c r="C48" s="0" t="n">
-        <f aca="false">C47-0.5</f>
-        <v>99.9</v>
+        <f aca="false">C47-0.8</f>
+        <v>99.3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,12 +2383,12 @@
         <v>69</v>
       </c>
       <c r="B49" s="0" t="n">
-        <f aca="false">B48-0.5</f>
-        <v>99.4</v>
+        <f aca="false">B48-0.8</f>
+        <v>98.5</v>
       </c>
       <c r="C49" s="0" t="n">
-        <f aca="false">C48-0.5</f>
-        <v>99.4</v>
+        <f aca="false">C48-0.8</f>
+        <v>98.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,12 +2396,12 @@
         <v>70</v>
       </c>
       <c r="B50" s="0" t="n">
-        <f aca="false">B49-1</f>
-        <v>98.4</v>
+        <f aca="false">B49-0.8</f>
+        <v>97.7</v>
       </c>
       <c r="C50" s="0" t="n">
-        <f aca="false">C49-1</f>
-        <v>98.4</v>
+        <f aca="false">C49-0.8</f>
+        <v>97.7</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>3</v>
@@ -2412,12 +2412,12 @@
         <v>71</v>
       </c>
       <c r="B51" s="0" t="n">
-        <f aca="false">B50-1</f>
-        <v>97.4</v>
+        <f aca="false">B50-0.8</f>
+        <v>96.9</v>
       </c>
       <c r="C51" s="0" t="n">
-        <f aca="false">C50-1</f>
-        <v>97.4</v>
+        <f aca="false">C50-0.8</f>
+        <v>96.9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,12 +2425,12 @@
         <v>72</v>
       </c>
       <c r="B52" s="0" t="n">
-        <f aca="false">B51-1</f>
-        <v>96.4</v>
+        <f aca="false">B51-0.8</f>
+        <v>96.1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <f aca="false">C51-1</f>
-        <v>96.4</v>
+        <f aca="false">C51-0.8</f>
+        <v>96.1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,12 +2438,12 @@
         <v>73</v>
       </c>
       <c r="B53" s="0" t="n">
-        <f aca="false">B52-1</f>
-        <v>95.4</v>
+        <f aca="false">B52-0.8</f>
+        <v>95.3</v>
       </c>
       <c r="C53" s="0" t="n">
-        <f aca="false">C52-1</f>
-        <v>95.4</v>
+        <f aca="false">C52-0.8</f>
+        <v>95.3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,12 +2451,12 @@
         <v>74</v>
       </c>
       <c r="B54" s="0" t="n">
-        <f aca="false">B53-1</f>
-        <v>94.4</v>
+        <f aca="false">B53-0.8</f>
+        <v>94.5</v>
       </c>
       <c r="C54" s="0" t="n">
-        <f aca="false">C53-1</f>
-        <v>94.4</v>
+        <f aca="false">C53-0.8</f>
+        <v>94.5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,12 +2464,12 @@
         <v>75</v>
       </c>
       <c r="B55" s="0" t="n">
-        <f aca="false">B54-1</f>
-        <v>93.4</v>
+        <f aca="false">B54-0.8</f>
+        <v>93.7</v>
       </c>
       <c r="C55" s="0" t="n">
-        <f aca="false">C54-1</f>
-        <v>93.4</v>
+        <f aca="false">C54-0.8</f>
+        <v>93.7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,12 +2477,12 @@
         <v>76</v>
       </c>
       <c r="B56" s="0" t="n">
-        <f aca="false">B55-1</f>
-        <v>92.4</v>
+        <f aca="false">B55-0.8</f>
+        <v>92.9</v>
       </c>
       <c r="C56" s="0" t="n">
-        <f aca="false">C55-1</f>
-        <v>92.4</v>
+        <f aca="false">C55-0.8</f>
+        <v>92.9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,12 +2490,12 @@
         <v>77.6986</v>
       </c>
       <c r="B57" s="0" t="n">
-        <f aca="false">B56-1</f>
-        <v>91.4</v>
+        <f aca="false">B56-0.8</f>
+        <v>92.1</v>
       </c>
       <c r="C57" s="0" t="n">
-        <f aca="false">C56-1</f>
-        <v>91.4</v>
+        <f aca="false">C56-0.8</f>
+        <v>92.1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,12 +2503,12 @@
         <v>79</v>
       </c>
       <c r="B58" s="0" t="n">
-        <f aca="false">B57-1</f>
-        <v>90.4</v>
+        <f aca="false">B57-0.8</f>
+        <v>91.3</v>
       </c>
       <c r="C58" s="0" t="n">
-        <f aca="false">C57-1</f>
-        <v>90.4</v>
+        <f aca="false">C57-0.8</f>
+        <v>91.3</v>
       </c>
     </row>
   </sheetData>
